--- a/tables/table_lft_univariate.xlsx
+++ b/tables/table_lft_univariate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md1spsx\Documents\PaperRifampicin\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md1spsx\Documents\GitHub\tristan-paper-first-in-human\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB03A8-66A1-43DE-BCC3-81CDA4999539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9361F895-2053-4F3C-A080-38D7FA44EDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5604" yWindow="1296" windowWidth="15804" windowHeight="10692" xr2:uid="{1D6EEBB6-DCDF-4CC4-B81F-9D35EA19CA1A}"/>
+    <workbookView xWindow="11100" yWindow="804" windowWidth="11844" windowHeight="9492" xr2:uid="{1D6EEBB6-DCDF-4CC4-B81F-9D35EA19CA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="table_liver_univariate" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t xml:space="preserve">5.0 (1.5) </t>
-  </si>
-  <si>
     <t>ALT (U/L)</t>
   </si>
   <si>
@@ -40,21 +37,6 @@
     <t>Rifampicin</t>
   </si>
   <si>
-    <t xml:space="preserve">13 (3.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 (1.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 (4.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (6.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">74 (18) </t>
-  </si>
-  <si>
     <t xml:space="preserve">22 (2.8) </t>
   </si>
   <si>
@@ -110,6 +92,24 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (2.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7 (1.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 (1.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 (4.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (5.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 (16) </t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1246,36 +1246,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="22">
         <v>-5.4</v>
@@ -1286,16 +1286,16 @@
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="23">
         <v>-3.1</v>
@@ -1306,16 +1306,16 @@
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="24">
         <v>2.8</v>
@@ -1326,16 +1326,16 @@
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="23">
         <v>-2</v>
@@ -1346,16 +1346,16 @@
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="25">
         <v>-1.6</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="26">
         <v>0</v>
